--- a/mosip_master/xlsx/individual_type.xlsx
+++ b/mosip_master/xlsx/individual_type.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">tam</t>
   </si>
   <si>
-    <t xml:space="preserve"> வெளிநாட்டவர்</t>
+    <t xml:space="preserve">வெளிநாட்டவர்</t>
   </si>
   <si>
     <t xml:space="preserve">வெளிநாட்டவர் அல்லாதவர்</t>
@@ -226,7 +226,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/individual_type.xlsx
+++ b/mosip_master/xlsx/individual_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\materdata.xlxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\Chithara27-fork\MEC-PROD-Mosip-data excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB7E41-B455-496C-BF1D-E8D67DDD43FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>lang_code</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Foreigner</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>NFR</t>
   </si>
   <si>
@@ -72,12 +70,36 @@
   </si>
   <si>
     <t>غير أجنبي</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>rediet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,10 +109,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -138,6 +159,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,116 +440,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44776.353977430554</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44776.353977430554</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44776.353977430554</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44776.353977430554</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44776.353977430554</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44776.353977430554</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/individual_type.xlsx
+++ b/mosip_master/xlsx/individual_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\materdata.xlxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893F682-63EB-45B9-8123-ECD4663D6E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>lang_code</t>
   </si>
@@ -56,28 +57,19 @@
     <t>Non-Foreigner</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>Étranger</t>
-  </si>
-  <si>
-    <t>Non-étranger</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>أجنبي</t>
-  </si>
-  <si>
-    <t>غير أجنبي</t>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>परदेशी</t>
+  </si>
+  <si>
+    <t>गैर विदेशी</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -137,7 +129,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,20 +408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -444,89 +435,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/individual_type.xlsx
+++ b/mosip_master/xlsx/individual_type.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\materdata.xlxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDABDD5-0010-42E1-9D43-AE85F05D3589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>lang_code</t>
   </si>
@@ -38,24 +39,15 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
-    <t>Foreigner</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
     <t>NFR</t>
   </si>
   <si>
-    <t>Non-Foreigner</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
@@ -63,21 +55,12 @@
   </si>
   <si>
     <t>Non-étranger</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>أجنبي</t>
-  </si>
-  <si>
-    <t>غير أجنبي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -137,7 +120,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,20 +399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -444,88 +426,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
